--- a/data/TransactionEstimationValidation/HW3.xlsx
+++ b/data/TransactionEstimationValidation/HW3.xlsx
@@ -1,21 +1,852 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7BFDFFE-F2BB-4FE3-B7B3-389FE1841FB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Team3" sheetId="3" r:id="rId1"/>
+    <sheet name="Team1" sheetId="1" r:id="rId2"/>
+    <sheet name="Team2" sheetId="2" r:id="rId3"/>
+    <sheet name="Team4" sheetId="4" r:id="rId4"/>
+    <sheet name="Team5" sheetId="5" r:id="rId5"/>
+    <sheet name="Team6" sheetId="6" r:id="rId6"/>
+    <sheet name="Team7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="273">
+  <si>
+    <t>Use Case ID</t>
+  </si>
+  <si>
+    <t>Use Case Name</t>
+  </si>
+  <si>
+    <t>Project Manager Estimate (hours)</t>
+  </si>
+  <si>
+    <t>Developer Estimate (hours)</t>
+  </si>
+  <si>
+    <t>UC-0</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>15-30</t>
+  </si>
+  <si>
+    <t>UC-1</t>
+  </si>
+  <si>
+    <t>Admin Login</t>
+  </si>
+  <si>
+    <t>UC-2</t>
+  </si>
+  <si>
+    <t>New user</t>
+  </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>UC-3</t>
+  </si>
+  <si>
+    <t>Give admin privileges</t>
+  </si>
+  <si>
+    <t>UC-4</t>
+  </si>
+  <si>
+    <t>Remove admin privileges</t>
+  </si>
+  <si>
+    <t>UC-5</t>
+  </si>
+  <si>
+    <t>Remove a user</t>
+  </si>
+  <si>
+    <t>UC-100</t>
+  </si>
+  <si>
+    <t>Add new product to inventory</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>UC-101</t>
+  </si>
+  <si>
+    <t>Add stock</t>
+  </si>
+  <si>
+    <t>UC-102</t>
+  </si>
+  <si>
+    <t>Add stock by .csv</t>
+  </si>
+  <si>
+    <t>UC-103</t>
+  </si>
+  <si>
+    <t>Add new patient</t>
+  </si>
+  <si>
+    <t>20-35</t>
+  </si>
+  <si>
+    <t>UC-201</t>
+  </si>
+  <si>
+    <t>Append data from visit</t>
+  </si>
+  <si>
+    <t>UC-202</t>
+  </si>
+  <si>
+    <t>Add files to patient record</t>
+  </si>
+  <si>
+    <t>UC-203</t>
+  </si>
+  <si>
+    <t>Create appointment for patient</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>30-50</t>
+  </si>
+  <si>
+    <t>UC-204</t>
+  </si>
+  <si>
+    <t>Retrieve patient files</t>
+  </si>
+  <si>
+    <t>UC-300</t>
+  </si>
+  <si>
+    <t>Log sale</t>
+  </si>
+  <si>
+    <t>UC-301</t>
+  </si>
+  <si>
+    <t>Lookup product with relevance to patient</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>50-70</t>
+  </si>
+  <si>
+    <t>UC-302</t>
+  </si>
+  <si>
+    <t>Add product recommendation</t>
+  </si>
+  <si>
+    <t>UC-400</t>
+  </si>
+  <si>
+    <t>Create task</t>
+  </si>
+  <si>
+    <t>UC-401</t>
+  </si>
+  <si>
+    <t>Send alert notifications to doctors</t>
+  </si>
+  <si>
+    <t>UC-500</t>
+  </si>
+  <si>
+    <t>Create report</t>
+  </si>
+  <si>
+    <t>40-70</t>
+  </si>
+  <si>
+    <t>UC-501</t>
+  </si>
+  <si>
+    <t>Create report on schedule</t>
+  </si>
+  <si>
+    <t>75-100</t>
+  </si>
+  <si>
+    <t>Person doing use case</t>
+  </si>
+  <si>
+    <t>Charlene</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Raghav</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Andrew Baker</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Tool Estimate</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>20~40hours</t>
+  </si>
+  <si>
+    <t>10~40hours</t>
+  </si>
+  <si>
+    <t>70~100hours</t>
+  </si>
+  <si>
+    <t>80~120hours</t>
+  </si>
+  <si>
+    <t>100~140hours</t>
+  </si>
+  <si>
+    <t>100~120hours</t>
+  </si>
+  <si>
+    <t>50~70hours</t>
+  </si>
+  <si>
+    <t>UC-6</t>
+  </si>
+  <si>
+    <t>10~30hours</t>
+  </si>
+  <si>
+    <t>UC-7</t>
+  </si>
+  <si>
+    <t>80~100hours</t>
+  </si>
+  <si>
+    <t>UC-8</t>
+  </si>
+  <si>
+    <t>10~20hours</t>
+  </si>
+  <si>
+    <t>UC-9</t>
+  </si>
+  <si>
+    <t>60~100hours</t>
+  </si>
+  <si>
+    <t>60~80hours</t>
+  </si>
+  <si>
+    <t>UC-10</t>
+  </si>
+  <si>
+    <t>30~50hours</t>
+  </si>
+  <si>
+    <t>UC-11</t>
+  </si>
+  <si>
+    <t>UC-12</t>
+  </si>
+  <si>
+    <t>UC-13</t>
+  </si>
+  <si>
+    <t>60~90hours</t>
+  </si>
+  <si>
+    <t>40~60hours</t>
+  </si>
+  <si>
+    <t>UC-14</t>
+  </si>
+  <si>
+    <t>50~80hours</t>
+  </si>
+  <si>
+    <t>UC-15</t>
+  </si>
+  <si>
+    <t>30~40hours</t>
+  </si>
+  <si>
+    <t>UC-16</t>
+  </si>
+  <si>
+    <t>UC-17</t>
+  </si>
+  <si>
+    <t>20~30hours</t>
+  </si>
+  <si>
+    <t>UC-18</t>
+  </si>
+  <si>
+    <t>UC-19</t>
+  </si>
+  <si>
+    <t>UC-20</t>
+  </si>
+  <si>
+    <t>UC-21</t>
+  </si>
+  <si>
+    <t>UC-22</t>
+  </si>
+  <si>
+    <t>20~50hours</t>
+  </si>
+  <si>
+    <t>UC-23</t>
+  </si>
+  <si>
+    <t>UC-24</t>
+  </si>
+  <si>
+    <t>UC-25</t>
+  </si>
+  <si>
+    <t>100-150hours</t>
+  </si>
+  <si>
+    <t>70-100hours</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>User login into the system using user name and password</t>
+  </si>
+  <si>
+    <t>Administrator login into the system using user name and password</t>
+  </si>
+  <si>
+    <t>Picked</t>
+  </si>
+  <si>
+    <t>50-80</t>
+  </si>
+  <si>
+    <t>60-100</t>
+  </si>
+  <si>
+    <t>Profile Complete</t>
+  </si>
+  <si>
+    <t>User can complete and update their profile</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>User can logout their account in setting</t>
+  </si>
+  <si>
+    <t>Tutorial Read</t>
+  </si>
+  <si>
+    <t>User can read related tutorial and policy in setting</t>
+  </si>
+  <si>
+    <t>Venue Information</t>
+  </si>
+  <si>
+    <t>User can see all venue with detail</t>
+  </si>
+  <si>
+    <t>Event Information</t>
+  </si>
+  <si>
+    <t>User can read all coming or present event detail information</t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>90-110</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Users call or message to other user.</t>
+  </si>
+  <si>
+    <t>Request Friend</t>
+  </si>
+  <si>
+    <t>User can send friend request to other users</t>
+  </si>
+  <si>
+    <t>120-130</t>
+  </si>
+  <si>
+    <t>100-120</t>
+  </si>
+  <si>
+    <t>Venue Check In</t>
+  </si>
+  <si>
+    <t>User can check in any venue around them</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>Venue Check Out</t>
+  </si>
+  <si>
+    <t>User can check out any venue whenever they want</t>
+  </si>
+  <si>
+    <t>60-70</t>
+  </si>
+  <si>
+    <t>Block User</t>
+  </si>
+  <si>
+    <t>Users can block any user they do not want to be disturbed</t>
+  </si>
+  <si>
+    <t>Punish User</t>
+  </si>
+  <si>
+    <t>Admin can block account violating policy</t>
+  </si>
+  <si>
+    <t>Delete User By Admin</t>
+  </si>
+  <si>
+    <t>Admin can delete account and prevent from future using</t>
+  </si>
+  <si>
+    <t>Delete account By User</t>
+  </si>
+  <si>
+    <t>User can delete their account forever</t>
+  </si>
+  <si>
+    <t>User Service</t>
+  </si>
+  <si>
+    <t>User can turn to maintainer for help by message</t>
+  </si>
+  <si>
+    <t>Complain</t>
+  </si>
+  <si>
+    <t>User can file a complaint case about other users or maintainer</t>
+  </si>
+  <si>
+    <t>Search users</t>
+  </si>
+  <si>
+    <t>Users click a search button to show other users in the same venue on map.</t>
+  </si>
+  <si>
+    <t>Profession Identification</t>
+  </si>
+  <si>
+    <t>User see profession icons in user profile.</t>
+  </si>
+  <si>
+    <t>120-140</t>
+  </si>
+  <si>
+    <t>80 - 90</t>
+  </si>
+  <si>
+    <t>Where am I</t>
+  </si>
+  <si>
+    <t>Users see themselves on map.</t>
+  </si>
+  <si>
+    <t>USE CASE’S</t>
+  </si>
+  <si>
+    <t>UC~1 (Login)</t>
+  </si>
+  <si>
+    <t>8~9 hours</t>
+  </si>
+  <si>
+    <t>2~3 hours</t>
+  </si>
+  <si>
+    <t>UC~2 (Topic Selection)</t>
+  </si>
+  <si>
+    <t>9~10 hours</t>
+  </si>
+  <si>
+    <t>5~ 6 hours</t>
+  </si>
+  <si>
+    <t>UC~3 (Level Selection)</t>
+  </si>
+  <si>
+    <t>5~6 hours</t>
+  </si>
+  <si>
+    <t>UC~4 (Check description)</t>
+  </si>
+  <si>
+    <t>20~30 hours</t>
+  </si>
+  <si>
+    <t>40 ~ 50 hours</t>
+  </si>
+  <si>
+    <t>UC~5 (Answer Question)</t>
+  </si>
+  <si>
+    <t>3~4 hours</t>
+  </si>
+  <si>
+    <t>16~17 hours</t>
+  </si>
+  <si>
+    <t>UC~6 (Exit Level)</t>
+  </si>
+  <si>
+    <t>1~2 hours</t>
+  </si>
+  <si>
+    <t>UC~7 (View Progress)</t>
+  </si>
+  <si>
+    <t>15~20 hours</t>
+  </si>
+  <si>
+    <t>UC~8 (Check Scores)</t>
+  </si>
+  <si>
+    <t>14~16 hours</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>UC~9 (Check Leaderboard)</t>
+  </si>
+  <si>
+    <t>20 ~ 22 hours</t>
+  </si>
+  <si>
+    <t>UC~10 (Leaderboard Options)</t>
+  </si>
+  <si>
+    <t>10 ~12 hours</t>
+  </si>
+  <si>
+    <t>10~12 hours</t>
+  </si>
+  <si>
+    <t>UC~11 (Sharing on Social Media)</t>
+  </si>
+  <si>
+    <t>4~5 hours</t>
+  </si>
+  <si>
+    <t>UC~12 (Language Selection)</t>
+  </si>
+  <si>
+    <t>15~16 hours</t>
+  </si>
+  <si>
+    <t>8 – 10 hours</t>
+  </si>
+  <si>
+    <t>UC~13 (Choosing Paid Version)</t>
+  </si>
+  <si>
+    <t>25~ 26 hours</t>
+  </si>
+  <si>
+    <t>24~25 hours</t>
+  </si>
+  <si>
+    <t>UC~14 (Color Scheme Selection)</t>
+  </si>
+  <si>
+    <t>UC~15 (check App and Developer Info)</t>
+  </si>
+  <si>
+    <t>1 – 2 hours</t>
+  </si>
+  <si>
+    <t>UC~16 (Sign Off)</t>
+  </si>
+  <si>
+    <t>4~ 5 hours</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>completing</t>
+  </si>
+  <si>
+    <t>PC-2</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>decided</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>(associated</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>semesterâ€™s</t>
+  </si>
+  <si>
+    <t>project.</t>
+  </si>
+  <si>
+    <t>UC-1 (Login)</t>
+  </si>
+  <si>
+    <t>8-9 hours</t>
+  </si>
+  <si>
+    <t>2-3 hours</t>
+  </si>
+  <si>
+    <t>UC-2 (Topic Selection)</t>
+  </si>
+  <si>
+    <t>9-10 hours</t>
+  </si>
+  <si>
+    <t>5- 6 hours</t>
+  </si>
+  <si>
+    <t>UC-3 (Level Selection)</t>
+  </si>
+  <si>
+    <t>5-6 hours</t>
+  </si>
+  <si>
+    <t>UC-4 (Check description)</t>
+  </si>
+  <si>
+    <t>20-30 hours</t>
+  </si>
+  <si>
+    <t>40 - 50 hours</t>
+  </si>
+  <si>
+    <t>UC-5 (Answer Question)</t>
+  </si>
+  <si>
+    <t>3-4 hours</t>
+  </si>
+  <si>
+    <t>16-17 hours</t>
+  </si>
+  <si>
+    <t>UC-6 (Exit Level)</t>
+  </si>
+  <si>
+    <t>1-2 hours</t>
+  </si>
+  <si>
+    <t>UC-7 (View Progress)</t>
+  </si>
+  <si>
+    <t>15-20 hours</t>
+  </si>
+  <si>
+    <t>UC-8 (Check Scores)</t>
+  </si>
+  <si>
+    <t>14-16 hours</t>
+  </si>
+  <si>
+    <t>UC-9 (Check Leaderboard)</t>
+  </si>
+  <si>
+    <t>20 - 22 hours</t>
+  </si>
+  <si>
+    <t>UC-10 (Leaderboard Options)</t>
+  </si>
+  <si>
+    <t>10 -12 hours</t>
+  </si>
+  <si>
+    <t>10-12 hours</t>
+  </si>
+  <si>
+    <t>UC-11 (Sharing on Social Media)</t>
+  </si>
+  <si>
+    <t>4-5 hours</t>
+  </si>
+  <si>
+    <t>UC-12 (Language Selection)</t>
+  </si>
+  <si>
+    <t>15-16 hours</t>
+  </si>
+  <si>
+    <t>UC-13 (Choosing Paid Version)</t>
+  </si>
+  <si>
+    <t>25- 26 hours</t>
+  </si>
+  <si>
+    <t>24-25 hours</t>
+  </si>
+  <si>
+    <t>UC-14 (Color Scheme Selection)</t>
+  </si>
+  <si>
+    <t>UC-15 (check App and Developer Info)</t>
+  </si>
+  <si>
+    <t>UC-16 (Sign Off)</t>
+  </si>
+  <si>
+    <t>4- 5 hours</t>
+  </si>
+  <si>
+    <t>19.10 Hours</t>
+  </si>
+  <si>
+    <t>11.46 hours</t>
+  </si>
+  <si>
+    <t>40.40 hours</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,19 +854,196 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -44,14 +1052,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +1193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +1226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +1278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +1470,2339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772CB17D-664D-4CD0-BF67-7F4273F4D4C9}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>29.66</v>
+      </c>
+      <c r="C2" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>40.94</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43393</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>24.57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>49.13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>24.57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43393</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>49.13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>114.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>95.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16">
+        <v>43393</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43393</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11">
+        <v>1187.0899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="16">
+        <v>43393</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="16">
+        <v>43393</v>
+      </c>
+      <c r="C15" s="16">
+        <v>43388</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="19">
+        <v>43388</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16">
+        <v>43393</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16">
+        <v>43393</v>
+      </c>
+      <c r="C18" s="16">
+        <v>43388</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20">
+        <v>40.729999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="16">
+        <v>43388</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23">
+        <v>61.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFA7AA-275A-43CF-B7E6-2ECFC926DC7D}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B42785-0320-4872-99F7-1348F623A528}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>103.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43230</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43235</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43388</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>33.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43230</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43388</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43388</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43230</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>67.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43135</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43134</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43388</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43393</v>
+      </c>
+      <c r="D13" s="8">
+        <v>43240</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43388</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43235</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>125.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43393</v>
+      </c>
+      <c r="D19" s="8">
+        <v>43235</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>116.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>356.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>102.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A22892-7ED8-4BDD-BDC0-33D61C6D32C1}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>219.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6294E9-63AE-4010-92AF-3F5BB4EE2B5E}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>29.66</v>
+      </c>
+      <c r="C2" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>40.94</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43393</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>24.57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>49.13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>24.57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43393</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>49.13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43393</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776F92BF-5055-4D13-8955-5FA72DDB3F44}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>